--- a/excel_copies/iso_excel_2023-2024_term2_FYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term2_FYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6923D6C-3B0D-4561-8369-C99AA9C0F98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8208A575-5D3D-4EAD-AF79-6BD7DA385BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term2_FYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term2_FYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8208A575-5D3D-4EAD-AF79-6BD7DA385BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350871A8-5222-4068-8DA1-B100D9C966E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term2_FYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term2_FYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350871A8-5222-4068-8DA1-B100D9C966E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6462D34F-2E68-4F25-9D6C-5C943085EA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term2_FYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term2_FYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6462D34F-2E68-4F25-9D6C-5C943085EA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F67451-4D24-442E-B9FF-18188B7E599B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
